--- a/US/data/CBS/NFIB/Now a Good Time to Expand.xlsx
+++ b/US/data/CBS/NFIB/Now a Good Time to Expand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BC3768-FC53-456C-9B69-BCB52F0804AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AA6485-6503-4B0E-B66F-BFB1EDE20319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="471">
   <si>
     <t>Month/Year</t>
   </si>
@@ -67,18 +67,21 @@
     <t>1986/8/1</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
     <t>1986/12/1</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
     <t>1987/12/1</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>1988/1/1</t>
   </si>
   <si>
@@ -157,342 +157,342 @@
     <t>1988/8/1</t>
   </si>
   <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1989/5/1</t>
+  </si>
+  <si>
+    <t>1989/6/1</t>
+  </si>
+  <si>
+    <t>1989/7/1</t>
+  </si>
+  <si>
+    <t>1989/8/1</t>
+  </si>
+  <si>
+    <t>1989/9/1</t>
+  </si>
+  <si>
+    <t>1989/10/1</t>
+  </si>
+  <si>
+    <t>1989/11/1</t>
+  </si>
+  <si>
+    <t>1989/12/1</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
-  </si>
-  <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
-    <t>1989/6/1</t>
-  </si>
-  <si>
-    <t>1989/7/1</t>
-  </si>
-  <si>
-    <t>1989/8/1</t>
-  </si>
-  <si>
-    <t>1989/9/1</t>
-  </si>
-  <si>
-    <t>1989/10/1</t>
-  </si>
-  <si>
-    <t>1989/11/1</t>
-  </si>
-  <si>
-    <t>1989/12/1</t>
-  </si>
-  <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
     <t>1997/3/1</t>
   </si>
   <si>
@@ -511,36 +511,36 @@
     <t>1997/8/1</t>
   </si>
   <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
     <t>1998/5/1</t>
   </si>
   <si>
@@ -1297,6 +1297,9 @@
     <t>2018/8/1</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>2018/9/1</t>
   </si>
   <si>
@@ -1408,10 +1411,28 @@
     <t>2021/8/1</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1916,60 +1937,60 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1977,7 +1998,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1985,42 +2006,42 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2049,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2057,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2065,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,100 +2105,100 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
         <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -2185,479 +2206,479 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
         <v>64</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
         <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -2665,15 +2686,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2681,39 +2702,39 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -2721,7 +2742,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2729,87 +2750,87 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2817,7 +2838,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2825,82 +2846,82 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" t="s">
         <v>156</v>
-      </c>
-      <c r="B135" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2929,7 @@
         <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2937,7 @@
         <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2945,7 @@
         <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2953,7 @@
         <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,12 +2969,12 @@
         <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -2961,7 +2982,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -2969,23 +2990,23 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -2993,15 +3014,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" t="s">
         <v>169</v>
-      </c>
-      <c r="B147" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3009,10 +3030,10 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" t="s">
         <v>172</v>
-      </c>
-      <c r="B149" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3057,7 @@
         <v>176</v>
       </c>
       <c r="B152" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3065,7 @@
         <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3073,7 @@
         <v>178</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3081,7 @@
         <v>179</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3089,7 @@
         <v>180</v>
       </c>
       <c r="B156" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3097,7 @@
         <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3105,7 @@
         <v>182</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3129,7 @@
         <v>185</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3161,7 @@
         <v>189</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3185,7 @@
         <v>192</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3209,7 @@
         <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3225,7 @@
         <v>197</v>
       </c>
       <c r="B173" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3233,7 @@
         <v>198</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3241,7 @@
         <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3249,7 @@
         <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3257,7 @@
         <v>201</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3273,7 @@
         <v>203</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3281,7 @@
         <v>204</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3289,7 @@
         <v>205</v>
       </c>
       <c r="B181" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3297,7 @@
         <v>206</v>
       </c>
       <c r="B182" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3305,7 @@
         <v>207</v>
       </c>
       <c r="B183" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3313,7 @@
         <v>208</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3321,7 @@
         <v>209</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3329,7 @@
         <v>210</v>
       </c>
       <c r="B186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3337,7 @@
         <v>211</v>
       </c>
       <c r="B187" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3345,7 @@
         <v>212</v>
       </c>
       <c r="B188" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3353,7 @@
         <v>213</v>
       </c>
       <c r="B189" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3361,7 @@
         <v>214</v>
       </c>
       <c r="B190" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3369,7 @@
         <v>215</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3377,7 @@
         <v>216</v>
       </c>
       <c r="B192" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3385,7 @@
         <v>217</v>
       </c>
       <c r="B193" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3393,7 @@
         <v>218</v>
       </c>
       <c r="B194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3401,7 @@
         <v>219</v>
       </c>
       <c r="B195" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3417,7 @@
         <v>221</v>
       </c>
       <c r="B197" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3425,7 @@
         <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3433,7 @@
         <v>223</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3441,7 @@
         <v>224</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3449,7 @@
         <v>225</v>
       </c>
       <c r="B201" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3457,7 @@
         <v>226</v>
       </c>
       <c r="B202" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3465,7 @@
         <v>227</v>
       </c>
       <c r="B203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3473,7 @@
         <v>228</v>
       </c>
       <c r="B204" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3481,7 @@
         <v>229</v>
       </c>
       <c r="B205" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3489,7 @@
         <v>230</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3497,7 @@
         <v>231</v>
       </c>
       <c r="B207" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3505,7 @@
         <v>232</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3513,7 @@
         <v>233</v>
       </c>
       <c r="B209" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3521,7 @@
         <v>234</v>
       </c>
       <c r="B210" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3529,7 @@
         <v>235</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3537,7 @@
         <v>236</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3545,7 @@
         <v>237</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3553,7 @@
         <v>238</v>
       </c>
       <c r="B214" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3577,7 @@
         <v>241</v>
       </c>
       <c r="B217" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3585,7 @@
         <v>242</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3617,7 @@
         <v>246</v>
       </c>
       <c r="B222" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3625,7 @@
         <v>247</v>
       </c>
       <c r="B223" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3641,7 @@
         <v>249</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3665,7 @@
         <v>252</v>
       </c>
       <c r="B228" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3681,7 @@
         <v>254</v>
       </c>
       <c r="B230" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3689,7 @@
         <v>255</v>
       </c>
       <c r="B231" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3713,7 @@
         <v>258</v>
       </c>
       <c r="B234" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3737,7 @@
         <v>261</v>
       </c>
       <c r="B237" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3753,7 @@
         <v>263</v>
       </c>
       <c r="B239" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3809,7 @@
         <v>270</v>
       </c>
       <c r="B246" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3817,7 @@
         <v>271</v>
       </c>
       <c r="B247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3825,7 @@
         <v>272</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3833,7 @@
         <v>273</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3841,7 @@
         <v>274</v>
       </c>
       <c r="B250" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3857,7 @@
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3865,7 @@
         <v>277</v>
       </c>
       <c r="B253" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3873,7 @@
         <v>278</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3881,7 @@
         <v>279</v>
       </c>
       <c r="B255" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3889,7 @@
         <v>280</v>
       </c>
       <c r="B256" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3897,7 @@
         <v>281</v>
       </c>
       <c r="B257" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3905,7 @@
         <v>282</v>
       </c>
       <c r="B258" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3913,7 @@
         <v>283</v>
       </c>
       <c r="B259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3921,7 @@
         <v>284</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3929,7 @@
         <v>285</v>
       </c>
       <c r="B261" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3937,7 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3945,7 @@
         <v>287</v>
       </c>
       <c r="B263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3953,7 @@
         <v>288</v>
       </c>
       <c r="B264" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3961,7 @@
         <v>289</v>
       </c>
       <c r="B265" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3969,7 @@
         <v>290</v>
       </c>
       <c r="B266" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3977,7 @@
         <v>291</v>
       </c>
       <c r="B267" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3985,7 @@
         <v>292</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3993,7 @@
         <v>293</v>
       </c>
       <c r="B269" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +4009,7 @@
         <v>296</v>
       </c>
       <c r="B271" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +4017,7 @@
         <v>297</v>
       </c>
       <c r="B272" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4025,7 @@
         <v>298</v>
       </c>
       <c r="B273" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4033,7 @@
         <v>299</v>
       </c>
       <c r="B274" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4041,7 @@
         <v>300</v>
       </c>
       <c r="B275" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4049,7 @@
         <v>301</v>
       </c>
       <c r="B276" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4057,7 @@
         <v>302</v>
       </c>
       <c r="B277" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4065,7 @@
         <v>303</v>
       </c>
       <c r="B278" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4089,7 @@
         <v>308</v>
       </c>
       <c r="B281" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4097,7 @@
         <v>309</v>
       </c>
       <c r="B282" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4105,7 @@
         <v>310</v>
       </c>
       <c r="B283" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4113,7 @@
         <v>311</v>
       </c>
       <c r="B284" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4129,7 @@
         <v>313</v>
       </c>
       <c r="B286" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4137,7 @@
         <v>314</v>
       </c>
       <c r="B287" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4145,7 @@
         <v>315</v>
       </c>
       <c r="B288" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4153,7 @@
         <v>316</v>
       </c>
       <c r="B289" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4185,7 @@
         <v>320</v>
       </c>
       <c r="B293" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4193,7 @@
         <v>321</v>
       </c>
       <c r="B294" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4201,7 @@
         <v>322</v>
       </c>
       <c r="B295" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4209,7 @@
         <v>323</v>
       </c>
       <c r="B296" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4217,7 @@
         <v>324</v>
       </c>
       <c r="B297" t="s">
-        <v>81</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4225,7 @@
         <v>325</v>
       </c>
       <c r="B298" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4233,7 @@
         <v>326</v>
       </c>
       <c r="B299" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4241,7 @@
         <v>327</v>
       </c>
       <c r="B300" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4249,7 @@
         <v>328</v>
       </c>
       <c r="B301" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4257,7 @@
         <v>329</v>
       </c>
       <c r="B302" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4265,7 @@
         <v>330</v>
       </c>
       <c r="B303" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4273,7 @@
         <v>331</v>
       </c>
       <c r="B304" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4281,7 @@
         <v>332</v>
       </c>
       <c r="B305" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4289,7 @@
         <v>333</v>
       </c>
       <c r="B306" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4297,7 @@
         <v>334</v>
       </c>
       <c r="B307" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4305,7 @@
         <v>335</v>
       </c>
       <c r="B308" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4321,7 @@
         <v>337</v>
       </c>
       <c r="B310" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4329,7 @@
         <v>338</v>
       </c>
       <c r="B311" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4337,7 @@
         <v>339</v>
       </c>
       <c r="B312" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4345,7 @@
         <v>340</v>
       </c>
       <c r="B313" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4353,7 @@
         <v>341</v>
       </c>
       <c r="B314" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4361,7 @@
         <v>342</v>
       </c>
       <c r="B315" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4369,7 @@
         <v>343</v>
       </c>
       <c r="B316" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4377,7 @@
         <v>344</v>
       </c>
       <c r="B317" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4385,7 @@
         <v>345</v>
       </c>
       <c r="B318" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4393,7 @@
         <v>346</v>
       </c>
       <c r="B319" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4401,7 @@
         <v>347</v>
       </c>
       <c r="B320" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4409,7 @@
         <v>348</v>
       </c>
       <c r="B321" t="s">
-        <v>81</v>
+        <v>295</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4417,7 @@
         <v>349</v>
       </c>
       <c r="B322" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4425,7 @@
         <v>350</v>
       </c>
       <c r="B323" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4433,7 @@
         <v>351</v>
       </c>
       <c r="B324" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4441,7 @@
         <v>352</v>
       </c>
       <c r="B325" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4449,7 @@
         <v>353</v>
       </c>
       <c r="B326" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4457,7 @@
         <v>354</v>
       </c>
       <c r="B327" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4465,7 @@
         <v>355</v>
       </c>
       <c r="B328" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4473,7 @@
         <v>356</v>
       </c>
       <c r="B329" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4481,7 @@
         <v>357</v>
       </c>
       <c r="B330" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4489,7 @@
         <v>358</v>
       </c>
       <c r="B331" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4497,7 @@
         <v>359</v>
       </c>
       <c r="B332" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4505,7 @@
         <v>360</v>
       </c>
       <c r="B333" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4513,7 @@
         <v>361</v>
       </c>
       <c r="B334" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4521,7 @@
         <v>362</v>
       </c>
       <c r="B335" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4529,7 @@
         <v>363</v>
       </c>
       <c r="B336" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4537,7 @@
         <v>364</v>
       </c>
       <c r="B337" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4545,7 @@
         <v>365</v>
       </c>
       <c r="B338" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4553,7 @@
         <v>366</v>
       </c>
       <c r="B339" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4561,7 @@
         <v>367</v>
       </c>
       <c r="B340" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4569,7 @@
         <v>368</v>
       </c>
       <c r="B341" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,7 +4577,7 @@
         <v>369</v>
       </c>
       <c r="B342" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4585,7 @@
         <v>370</v>
       </c>
       <c r="B343" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4593,7 @@
         <v>371</v>
       </c>
       <c r="B344" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4601,7 @@
         <v>372</v>
       </c>
       <c r="B345" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4609,7 @@
         <v>373</v>
       </c>
       <c r="B346" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4617,7 @@
         <v>374</v>
       </c>
       <c r="B347" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4625,7 @@
         <v>375</v>
       </c>
       <c r="B348" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4633,7 @@
         <v>376</v>
       </c>
       <c r="B349" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,7 +4641,7 @@
         <v>377</v>
       </c>
       <c r="B350" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4649,7 @@
         <v>378</v>
       </c>
       <c r="B351" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4657,7 @@
         <v>379</v>
       </c>
       <c r="B352" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4665,7 @@
         <v>380</v>
       </c>
       <c r="B353" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4673,7 @@
         <v>381</v>
       </c>
       <c r="B354" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4681,7 @@
         <v>382</v>
       </c>
       <c r="B355" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4689,7 @@
         <v>383</v>
       </c>
       <c r="B356" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4697,7 @@
         <v>384</v>
       </c>
       <c r="B357" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4705,7 @@
         <v>385</v>
       </c>
       <c r="B358" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -4692,7 +4713,7 @@
         <v>386</v>
       </c>
       <c r="B359" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4721,7 @@
         <v>387</v>
       </c>
       <c r="B360" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4729,7 @@
         <v>388</v>
       </c>
       <c r="B361" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4737,7 @@
         <v>389</v>
       </c>
       <c r="B362" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4745,7 @@
         <v>390</v>
       </c>
       <c r="B363" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4753,7 @@
         <v>391</v>
       </c>
       <c r="B364" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4761,7 @@
         <v>392</v>
       </c>
       <c r="B365" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4748,7 +4769,7 @@
         <v>393</v>
       </c>
       <c r="B366" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4777,7 @@
         <v>394</v>
       </c>
       <c r="B367" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4764,7 +4785,7 @@
         <v>395</v>
       </c>
       <c r="B368" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4793,7 @@
         <v>396</v>
       </c>
       <c r="B369" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +4801,7 @@
         <v>397</v>
       </c>
       <c r="B370" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,7 +4809,7 @@
         <v>398</v>
       </c>
       <c r="B371" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4817,7 @@
         <v>399</v>
       </c>
       <c r="B372" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4804,7 +4825,7 @@
         <v>400</v>
       </c>
       <c r="B373" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4833,7 @@
         <v>401</v>
       </c>
       <c r="B374" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4841,7 @@
         <v>402</v>
       </c>
       <c r="B375" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4849,7 @@
         <v>403</v>
       </c>
       <c r="B376" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4857,7 @@
         <v>404</v>
       </c>
       <c r="B377" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4873,7 @@
         <v>406</v>
       </c>
       <c r="B379" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +4889,7 @@
         <v>408</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4897,7 @@
         <v>409</v>
       </c>
       <c r="B382" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4945,7 @@
         <v>417</v>
       </c>
       <c r="B388" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,12 +4985,12 @@
         <v>424</v>
       </c>
       <c r="B393" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B394" t="s">
         <v>420</v>
@@ -4977,23 +4998,23 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B395" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B396" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B397" t="s">
         <v>12</v>
@@ -5001,7 +5022,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -5009,15 +5030,15 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B399" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B400" t="s">
         <v>12</v>
@@ -5025,7 +5046,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B401" t="s">
         <v>174</v>
@@ -5033,23 +5054,23 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B402" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B403" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B404" t="s">
         <v>7</v>
@@ -5057,15 +5078,15 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B405" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B406" t="s">
         <v>12</v>
@@ -5073,7 +5094,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B407" t="s">
         <v>12</v>
@@ -5081,23 +5102,23 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B408" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B409" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B410" t="s">
         <v>9</v>
@@ -5105,7 +5126,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -5113,15 +5134,15 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B412" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B413" t="s">
         <v>305</v>
@@ -5129,152 +5150,199 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B414" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B415" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B416" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B417" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B418" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B419" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B420" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B421" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B422" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B423" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B424" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B425" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B426" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B427" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B428" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B429" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B430" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B431" t="s">
-        <v>72</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>465</v>
+      </c>
+      <c r="B432" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>466</v>
+      </c>
+      <c r="B433" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>467</v>
+      </c>
+      <c r="B434" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>468</v>
+      </c>
+      <c r="B435" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>469</v>
+      </c>
+      <c r="B436" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>470</v>
+      </c>
+      <c r="B437" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Now a Good Time to Expand.xlsx
+++ b/US/data/CBS/NFIB/Now a Good Time to Expand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AA6485-6503-4B0E-B66F-BFB1EDE20319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{233B043D-902F-4B9A-8705-91B3D46A405E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="472">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1433,6 +1433,9 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5340,9 +5343,18 @@
         <v>295</v>
       </c>
     </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>471</v>
+      </c>
+      <c r="B438" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>